--- a/angular/src/assets/sampleFiles/Calibration/CalibrationInput_LGD_Haircut.xlsx
+++ b/angular/src/assets/sampleFiles/Calibration/CalibrationInput_LGD_Haircut.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryemitan\Desktop\Dev\ECL Automation\ETI\App\Sample Uploads\Calibration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryemitan\Desktop\Dev\ECL Automation\ETI\App\ETI_ECL_Engine\angular\src\assets\sampleFiles\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895E1ADD-0CB3-445C-A3AB-AE592739141D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72B916A-1A4C-4EF5-9056-43D2D5D88C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>Customer_No</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>10153000077502</t>
+  </si>
+  <si>
+    <t>Guarantee_Value</t>
   </si>
 </sst>
 </file>
@@ -119,7 +122,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="&quot; &quot;#,##0.00&quot; &quot;;&quot; (&quot;#,##0.00&quot;)&quot;;&quot; -&quot;00&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
+    <numFmt numFmtId="165" formatCode="&quot; &quot;#,##0.00&quot; &quot;;&quot; (&quot;#,##0.00&quot;)&quot;;&quot; -&quot;00&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -613,7 +616,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -960,10 +963,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B1E5E2-FB3A-4804-B949-E2061B45DF3F}">
-  <dimension ref="A1:X18"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,10 +992,11 @@
     <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1063,10 +1067,13 @@
         <v>22</v>
       </c>
       <c r="X1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>30000775</v>
       </c>
@@ -1098,8 +1105,11 @@
       <c r="W2" s="7">
         <v>700000000</v>
       </c>
+      <c r="X2" s="7">
+        <v>742350000</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>30000775</v>
       </c>
@@ -1131,8 +1141,11 @@
       <c r="W3" s="7">
         <v>700000000</v>
       </c>
+      <c r="X3" s="7">
+        <v>742350000</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>30000775</v>
       </c>
@@ -1164,8 +1177,11 @@
       <c r="W4" s="7">
         <v>700000000</v>
       </c>
+      <c r="X4" s="7">
+        <v>742350000</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>30000775</v>
       </c>
@@ -1201,8 +1217,11 @@
       <c r="W5" s="7">
         <v>700000000</v>
       </c>
+      <c r="X5" s="7">
+        <v>742350000</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>30000775</v>
       </c>
@@ -1238,8 +1257,11 @@
       <c r="W6" s="7">
         <v>700000000</v>
       </c>
+      <c r="X6" s="7">
+        <v>742350000</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>30000775</v>
       </c>
@@ -1271,8 +1293,11 @@
       <c r="W7" s="7">
         <v>700000000</v>
       </c>
+      <c r="X7" s="7">
+        <v>742350000</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>30000775</v>
       </c>
@@ -1304,8 +1329,11 @@
       <c r="W8" s="7">
         <v>700000000</v>
       </c>
+      <c r="X8" s="7">
+        <v>742350000</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>30000775</v>
       </c>
@@ -1337,8 +1365,11 @@
       <c r="W9" s="7">
         <v>700000000</v>
       </c>
+      <c r="X9" s="7">
+        <v>742350000</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>30000775</v>
       </c>
@@ -1370,8 +1401,11 @@
       <c r="W10" s="7">
         <v>700000000</v>
       </c>
+      <c r="X10" s="7">
+        <v>742350000</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1384,7 +1418,7 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1397,7 +1431,7 @@
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1410,7 +1444,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1423,58 +1457,6 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/angular/src/assets/sampleFiles/Calibration/CalibrationInput_LGD_Haircut.xlsx
+++ b/angular/src/assets/sampleFiles/Calibration/CalibrationInput_LGD_Haircut.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryemitan\Desktop\Dev\ECL Automation\ETI\App\ETI_ECL_Engine\angular\src\assets\sampleFiles\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72B916A-1A4C-4EF5-9056-43D2D5D88C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEDB004-28A1-4B03-9989-AED68983BDDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="3930" windowWidth="18330" windowHeight="11205" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="27" r:id="rId1"/>
@@ -626,9 +626,9 @@
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{5619AD69-9119-47E2-B6B7-2C8EA97AB0E0}"/>
@@ -965,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B1E5E2-FB3A-4804-B949-E2061B45DF3F}">
   <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,25 +975,22 @@
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="25.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.85546875" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
@@ -1009,67 +1006,67 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1077,7 +1074,7 @@
       <c r="A2" s="3">
         <v>30000775</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -1086,7 +1083,7 @@
       <c r="D2" s="2">
         <v>41912</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="9">
         <v>1895620125</v>
       </c>
       <c r="F2" s="4">
@@ -1095,17 +1092,55 @@
       <c r="G2" s="4">
         <v>700000000</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="V2" s="7">
-        <v>742350000</v>
-      </c>
-      <c r="W2" s="7">
+      <c r="H2" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="I2" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="J2" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="K2" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="L2" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="M2" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="N2" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="O2" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="P2" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="R2" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="S2" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="T2" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="U2" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="V2" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="W2" s="8">
         <v>700000000</v>
       </c>
-      <c r="X2" s="7">
+      <c r="X2" s="8">
         <v>742350000</v>
       </c>
     </row>
@@ -1113,7 +1148,7 @@
       <c r="A3" s="3">
         <v>30000775</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -1122,7 +1157,7 @@
       <c r="D3" s="2">
         <v>41820</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="9">
         <v>1798713070</v>
       </c>
       <c r="F3" s="4">
@@ -1131,17 +1166,55 @@
       <c r="G3" s="4">
         <v>700000000</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="V3" s="7">
-        <v>742350000</v>
-      </c>
-      <c r="W3" s="7">
+      <c r="H3" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="I3" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="J3" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="K3" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="L3" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="M3" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="N3" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="O3" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="P3" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="R3" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="S3" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="T3" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="U3" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="V3" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="W3" s="8">
         <v>700000000</v>
       </c>
-      <c r="X3" s="7">
+      <c r="X3" s="8">
         <v>742350000</v>
       </c>
     </row>
@@ -1149,7 +1222,7 @@
       <c r="A4" s="3">
         <v>30000775</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -1158,7 +1231,7 @@
       <c r="D4" s="2">
         <v>42094</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="9">
         <v>1534812300</v>
       </c>
       <c r="F4" s="4">
@@ -1167,17 +1240,55 @@
       <c r="G4" s="4">
         <v>700000000</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="V4" s="7">
-        <v>742350000</v>
-      </c>
-      <c r="W4" s="7">
+      <c r="H4" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="I4" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="J4" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="K4" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="L4" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="M4" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="N4" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="O4" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="P4" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="R4" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="S4" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="T4" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="U4" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="V4" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="W4" s="8">
         <v>700000000</v>
       </c>
-      <c r="X4" s="7">
+      <c r="X4" s="8">
         <v>742350000</v>
       </c>
     </row>
@@ -1185,7 +1296,7 @@
       <c r="A5" s="3">
         <v>30000775</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1194,7 +1305,7 @@
       <c r="D5" s="2">
         <v>42185</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="9">
         <v>1534812300</v>
       </c>
       <c r="F5" s="4">
@@ -1203,21 +1314,55 @@
       <c r="G5" s="4">
         <v>700000000</v>
       </c>
-      <c r="H5" s="4">
-        <v>742350000</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="H5" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="I5" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="J5" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="K5" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="L5" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="M5" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="N5" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="O5" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="P5" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="R5" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="S5" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="T5" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="U5" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="V5" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="W5" s="8">
         <v>700000000</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="V5" s="7">
-        <v>742350000</v>
-      </c>
-      <c r="W5" s="7">
-        <v>700000000</v>
-      </c>
-      <c r="X5" s="7">
+      <c r="X5" s="8">
         <v>742350000</v>
       </c>
     </row>
@@ -1225,7 +1370,7 @@
       <c r="A6" s="3">
         <v>30000775</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -1234,7 +1379,7 @@
       <c r="D6" s="2">
         <v>42277</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="9">
         <v>1534812300</v>
       </c>
       <c r="F6" s="4">
@@ -1243,21 +1388,55 @@
       <c r="G6" s="4">
         <v>700000000</v>
       </c>
-      <c r="H6" s="4">
-        <v>742350000</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="H6" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="I6" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="J6" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="K6" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="L6" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="M6" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="N6" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="O6" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="P6" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="R6" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="S6" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="T6" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="U6" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="V6" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="W6" s="8">
         <v>700000000</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="V6" s="7">
-        <v>742350000</v>
-      </c>
-      <c r="W6" s="7">
-        <v>700000000</v>
-      </c>
-      <c r="X6" s="7">
+      <c r="X6" s="8">
         <v>742350000</v>
       </c>
     </row>
@@ -1265,7 +1444,7 @@
       <c r="A7" s="3">
         <v>30000775</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -1274,7 +1453,7 @@
       <c r="D7" s="2">
         <v>42369</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="9">
         <v>1534812300</v>
       </c>
       <c r="F7" s="4">
@@ -1283,17 +1462,55 @@
       <c r="G7" s="4">
         <v>700000000</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="V7" s="7">
-        <v>742350000</v>
-      </c>
-      <c r="W7" s="7">
+      <c r="H7" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="I7" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="J7" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="K7" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="L7" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="M7" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="N7" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="O7" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="P7" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="R7" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="S7" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="T7" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="U7" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="V7" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="W7" s="8">
         <v>700000000</v>
       </c>
-      <c r="X7" s="7">
+      <c r="X7" s="8">
         <v>742350000</v>
       </c>
     </row>
@@ -1301,7 +1518,7 @@
       <c r="A8" s="3">
         <v>30000775</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1310,7 +1527,7 @@
       <c r="D8" s="2">
         <v>42460</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="9">
         <v>1534812300</v>
       </c>
       <c r="F8" s="4">
@@ -1319,17 +1536,55 @@
       <c r="G8" s="4">
         <v>700000000</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="V8" s="7">
-        <v>742350000</v>
-      </c>
-      <c r="W8" s="7">
+      <c r="H8" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="I8" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="J8" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="K8" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="L8" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="M8" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="N8" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="O8" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="P8" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="R8" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="S8" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="T8" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="U8" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="V8" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="W8" s="8">
         <v>700000000</v>
       </c>
-      <c r="X8" s="7">
+      <c r="X8" s="8">
         <v>742350000</v>
       </c>
     </row>
@@ -1337,7 +1592,7 @@
       <c r="A9" s="3">
         <v>30000775</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -1346,7 +1601,7 @@
       <c r="D9" s="2">
         <v>42551</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="9">
         <v>1534812300</v>
       </c>
       <c r="F9" s="4">
@@ -1355,17 +1610,55 @@
       <c r="G9" s="4">
         <v>700000000</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="V9" s="7">
-        <v>742350000</v>
-      </c>
-      <c r="W9" s="7">
+      <c r="H9" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="I9" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="J9" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="K9" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="L9" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="M9" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="N9" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="O9" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="P9" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="R9" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="S9" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="T9" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="U9" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="V9" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="W9" s="8">
         <v>700000000</v>
       </c>
-      <c r="X9" s="7">
+      <c r="X9" s="8">
         <v>742350000</v>
       </c>
     </row>
@@ -1373,7 +1666,7 @@
       <c r="A10" s="3">
         <v>30000775</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -1382,7 +1675,7 @@
       <c r="D10" s="2">
         <v>42643</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="9">
         <v>1534812300</v>
       </c>
       <c r="F10" s="4">
@@ -1391,17 +1684,55 @@
       <c r="G10" s="4">
         <v>700000000</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="V10" s="7">
-        <v>742350000</v>
-      </c>
-      <c r="W10" s="7">
+      <c r="H10" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="I10" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="J10" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="K10" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="L10" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="M10" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="N10" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="O10" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="P10" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="R10" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="S10" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="T10" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="U10" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="V10" s="8">
+        <v>742350000</v>
+      </c>
+      <c r="W10" s="8">
         <v>700000000</v>
       </c>
-      <c r="X10" s="7">
+      <c r="X10" s="8">
         <v>742350000</v>
       </c>
     </row>
@@ -1410,52 +1741,52 @@
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/angular/src/assets/sampleFiles/Calibration/CalibrationInput_LGD_Haircut.xlsx
+++ b/angular/src/assets/sampleFiles/Calibration/CalibrationInput_LGD_Haircut.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryemitan\Desktop\Dev\ECL Automation\ETI\App\ETI_ECL_Engine\angular\src\assets\sampleFiles\Calibration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PwC\Projects\SourceCode\Firs_9_ECL\FrontEnd\angular\src\assets\sampleFiles\Calibration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEDB004-28A1-4B03-9989-AED68983BDDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7322E0-B90F-4783-9F0F-0F5D7421AF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="3930" windowWidth="18330" windowHeight="11205" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="698" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="27" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -965,8 +963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B1E5E2-FB3A-4804-B949-E2061B45DF3F}">
   <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
